--- a/KMWS03/KMWS03/yêu cầu/要件3_KDW006勤怠項目の設定(機能制御)_成果物一覧.xlsx
+++ b/KMWS03/KMWS03/yêu cầu/要件3_KDW006勤怠項目の設定(機能制御)_成果物一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazuya_ushigaki\Documents\12_TuanTeam\01設計\02_メタウォーター_代行確認\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.4\share\500_新構想開発\04_設計\00_JP⇒VN説明会\20230922_1490_メタウォーター対応\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2501738E-A905-4F29-8FD6-4198D3421B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC7FA4A-2750-4C16-9FF5-3FCE5EBFE352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="成果物一覧" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>パス</t>
     <phoneticPr fontId="1"/>
@@ -256,9 +256,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>\\192.168.50.4\share\500_新構想開発\04_設計\60_UI設計\K_就業\KDW_日別実績\KDW006_前準備\ver4</t>
-  </si>
-  <si>
     <t>画面設計書-KDW006-運用設定(5次).xlsx</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -325,6 +322,26 @@
   </si>
   <si>
     <t>UKDesign.データベース.ER図.就業.contexts.勤務実績.勤務実績の運用.勤務実績の運用方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.XXXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\\192.168.50.4\share\500_新構想開発\04_設計\60_UI設計\K_就業\KDW_日別実績\KDW006_前準備\ver4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver46</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver52</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1086,11 +1103,11 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1174,7 +1191,7 @@
       <c r="A7" s="8"/>
       <c r="B7" s="21"/>
       <c r="C7" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="20"/>
@@ -1184,14 +1201,16 @@
       <c r="A8" s="8"/>
       <c r="B8" s="21"/>
       <c r="C8" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F8" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1228,14 +1247,16 @@
       <c r="A12" s="8"/>
       <c r="B12" s="21"/>
       <c r="C12" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F12" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1252,7 +1273,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="21"/>
       <c r="C14" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="20"/>
@@ -1262,7 +1283,7 @@
       <c r="A15" s="8"/>
       <c r="B15" s="21"/>
       <c r="C15" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>36</v>
@@ -1294,7 +1315,7 @@
       <c r="A18" s="8"/>
       <c r="B18" s="21"/>
       <c r="C18" s="17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="20"/>
@@ -1304,19 +1325,21 @@
       <c r="A19" s="8"/>
       <c r="B19" s="21"/>
       <c r="C19" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="B20" s="21"/>
       <c r="C20" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="20"/>
@@ -1326,12 +1349,14 @@
       <c r="A21" s="8"/>
       <c r="B21" s="21"/>
       <c r="C21" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1369,9 +1394,10 @@
   <hyperlinks>
     <hyperlink ref="C20" r:id="rId1" xr:uid="{EBEC9A70-9E4D-4DCB-8A1B-E278E229E967}"/>
     <hyperlink ref="C12" r:id="rId2" xr:uid="{E15FAC1A-017C-4648-A3C4-9ACF030FFC8B}"/>
+    <hyperlink ref="C18" r:id="rId3" xr:uid="{18122A8E-D351-41C3-92B2-9D919D8282B5}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="51" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="8" scale="51" orientation="portrait" r:id="rId4"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;Z&amp;F</oddFooter>
   </headerFooter>
